--- a/ProjectDocs/Bug Sheet.xlsx
+++ b/ProjectDocs/Bug Sheet.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView windowWidth="18600" windowHeight="7215"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bug Sheet_v_1.1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+  <si>
+    <t>COMPUCOM TRACKER BUG SHEET</t>
+  </si>
   <si>
     <t>S.No.</t>
   </si>
@@ -33,125 +36,465 @@
     <t>Bug Description</t>
   </si>
   <si>
+    <t>Created By</t>
+  </si>
+  <si>
     <t>Assign To</t>
   </si>
   <si>
-    <t>Created By</t>
-  </si>
-  <si>
     <t>Current Status</t>
   </si>
   <si>
     <t>CSL_TRACKER_BUG_LIVE_TRACKING_B01</t>
   </si>
   <si>
+    <t>CSL_TRACKER_LIVE_TRACKING_TC06</t>
+  </si>
+  <si>
     <t>Google API BUG</t>
   </si>
   <si>
     <t>Earth view of the google API not working</t>
   </si>
   <si>
+    <t>Swati</t>
+  </si>
+  <si>
+    <t>Unresolved</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_BUG_DEVICE_REGISTERATION_B02</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_DEVICE_EDIT_TC12</t>
+  </si>
+  <si>
+    <t>Phone number length in Track Registeration  page Bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile number input text box is allowing 15 digit mobile number. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a Bug as it is not allowing to save the 15 digit mobile number hence keeping our objective intact.  </t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_BUG_DEVICE_REGISTERATION_B03</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_DEVICE_REGISTERATION_TC09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message pop up window position mismatch Dashboard Bug                                                                                                               </t>
+  </si>
+  <si>
     <t xml:space="preserve">Position of the SMS message window for device records listed below the defined screen size are not appearing within the defined dimensions. </t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile number input text box is allowing 15 digit mobile number. </t>
+    <t>CSL_TRACKER_BUG_DEVICE_REGISTERATION_B04</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_TRIPREPORT_TC02</t>
+  </si>
+  <si>
+    <t>Trip Report Bug</t>
   </si>
   <si>
     <t>A complete Trip Report for the desired tracking devices is not appearing for the desired duration.</t>
   </si>
   <si>
-    <t>Trip Report Bug</t>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_BUG_DASHBOARD_DISPLAY_B05</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_USER_DASHBOARD_DISPLAY_TC01</t>
   </si>
   <si>
     <t>Dashboard UI Bug</t>
   </si>
   <si>
     <t xml:space="preserve">Application name CSL GPS TRACKER is not appearing properly in the header section of Dashboard page </t>
-  </si>
-  <si>
-    <t>Swati</t>
-  </si>
-  <si>
-    <t>Resolved</t>
-  </si>
-  <si>
-    <t>Unresolved</t>
-  </si>
-  <si>
-    <t>Phone number length in Track Registeration  page Bug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message pop up window position mismatch Dashboard Bug                                                                                                               </t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_DEVICE_REGISTERATION_TC06</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_LIVE_TRACKING_TC06</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_BUG_DEVICE_REGISTERATION_B02</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_DEVICE_REGISTERATION_TC09</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_BUG_DEVICE_REGISTERATION_B03</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_USER_DASHBOARD_DISPLAY_TC01</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_TRIPREPORT_TC02</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_BUG_DEVICE_REGISTERATION_B04</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_BUG_DASHBOARD_DISPLAY_B05</t>
-  </si>
-  <si>
-    <t>COMPUCOM TRACKER BUG SHEET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -161,60 +504,359 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -288,6 +930,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -322,6 +965,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,8 +1098,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -491,248 +1135,264 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="32.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="31.5714285714286" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="12.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="10.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="33.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="26.25">
-      <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+    <row r="2" ht="26.25" spans="3:5">
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="50.1" customHeight="1">
+    <row r="5" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:8">
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>19</v>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" ht="50.1" customHeight="1">
+    <row r="6" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:8">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" ht="60.75" customHeight="1">
+    <row r="7" s="2" customFormat="1" ht="60.75" customHeight="1" spans="1:8">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>19</v>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" ht="50.1" customHeight="1">
+    <row r="8" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:8">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="50.1" customHeight="1">
+    <row r="9" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:8">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A10" s="7">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>